--- a/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
+++ b/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>DATA1</t>
   </si>
@@ -105,10 +105,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,44 +406,44 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -451,39 +451,39 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
+      <c r="F3" s="1">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>44</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -491,19 +491,19 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>46</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -511,19 +511,19 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -531,19 +531,19 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -551,19 +551,19 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -571,19 +571,13 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -591,19 +585,19 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -614,10 +608,10 @@
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>39</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -625,30 +619,24 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E12">
         <v>10</v>
-      </c>
-      <c r="F12" s="2">
-        <v>41</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -656,10 +644,10 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -667,10 +655,10 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -678,10 +666,10 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
+++ b/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>DATA1</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F#</t>
   </si>
 </sst>
 </file>
@@ -406,7 +415,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -580,6 +589,12 @@
       <c r="E9">
         <v>7</v>
       </c>
+      <c r="F9" s="1">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -605,6 +620,12 @@
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E11">
         <v>9</v>
       </c>
@@ -627,6 +648,12 @@
       </c>
       <c r="E12">
         <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
+++ b/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
@@ -16,66 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATA1</t>
   </si>
   <si>
-    <t>NOTE</t>
-  </si>
-  <si>
     <t>Кнопка черная</t>
   </si>
   <si>
     <t>Кнопка белая</t>
   </si>
   <si>
-    <t>С</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>2F</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Bb</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>Eb</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>G#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B </t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>F#</t>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3F</t>
   </si>
 </sst>
 </file>
@@ -415,7 +391,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -438,22 +414,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,19 +431,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,19 +445,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,19 +459,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -521,19 +473,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,19 +487,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -561,19 +501,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,19 +515,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -601,19 +529,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -621,19 +543,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="1">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -641,19 +557,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -661,10 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -672,10 +579,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -683,10 +587,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -694,10 +595,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
+++ b/Таблица соответствия кнопок/Соответствие кнопок_исходные параметры.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="219" yWindow="82" windowWidth="21463" windowHeight="8955"/>
+    <workbookView xWindow="216" yWindow="86" windowWidth="21456" windowHeight="8957"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>DATA1</t>
   </si>
@@ -27,31 +27,25 @@
     <t>Кнопка белая</t>
   </si>
   <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>4F</t>
-  </si>
-  <si>
     <t>3E</t>
   </si>
   <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
     <t>3F</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>Функциональные кнопки</t>
   </si>
 </sst>
 </file>
@@ -388,23 +382,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -412,7 +408,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -425,177 +421,246 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" s="1">
+        <v>34</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="1">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="1">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>55</v>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>56</v>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="1">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
+      <c r="B12" s="1">
+        <v>40</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="1">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
